--- a/Dataset/Folds/Fold_1/Excel/97.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/97.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="490">
   <si>
     <t>Doi</t>
   </si>
@@ -1490,6 +1490,169 @@
   </si>
   <si>
     <t>[Ivan Yu Jun%Seah%NULL%1,                           Danielle E.%Anderson%NULL%1,                           Adrian Eng Zheng%Kang%NULL%1,                           Linfa%Wang%NULL%1,                           Pooja%Rao%NULL%1,                           Barnaby Edward%Young%NULL%0,                           David Chien%Lye%NULL%1,                           Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Wen-hua%Liang%NULL%0,                            Chun-quan%Ou%NULL%0,                            Jian-xing%He%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chun-liang%Lei%NULL%0,                            David S.C.%Hui%NULL%0,                            Bin%Du%NULL%0,                            Lan-juan%Li%NULL%0,                            Guang%Zeng%NULL%0,                            Kwok-Yung%Yuen%NULL%0,                            Ru-chong%Chen%NULL%0,                            Chun-li%Tang%NULL%0,                            Tao%Wang%NULL%0,                            Ping-yan%Chen%NULL%0,                            Jie%Xiang%NULL%0,                            Shi-yue%Li%NULL%0,                            Jin-lin%Wang%NULL%0,                            Zi-jing%Liang%NULL%0,                            Yi-xiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Ya-hua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jian-ming%Wang%NULL%0,                            Ji-yang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhi-jian%Zheng%NULL%0,                            Shao-qin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Chang-jiang%Ye%NULL%0,                            Shao-yong%Zhu%NULL%0,                            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,                            Fang%Duan%NULL%1,                            Chunhua%Luo%NULL%1,                            Qiang%Liu%NULL%0,                            Xingguang%Qu%NULL%1,                            Liang%Liang%NULL%1,                            Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,                            Xuhui%Chen%NULL%3,                            Liwen%Chen%NULL%1,                            Chaohua%Deng%NULL%3,                            Xiaojing%Zou%NULL%0,                            Xiaojing%Zou%NULL%0,                            Weiyong%Liu%NULL%3,                            Weiyong%Liu%NULL%0,                            Huimin%Yu%NULL%3,                            Huimin%Yu%NULL%0,                            Bo%Chen%NULL%2,                            Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,                            Jianping%Tong%NULL%1,                            Mengyun%Liu%NULL%1,                            Ye%Shen%idrshen@zju.edu.cn%1,                            Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,                            Shi-Yun%Jiang%NULL%1,                            Kang-Kang%Xu%NULL%1,                            Xin%Liu%NULL%1,                            Bing%Xu%NULL%1,                            Lin%Wang%lin_wang@hust.edu.cn%0,                            Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,                            Chaohua%Deng%NULL%0,                            Chaohua%Deng%NULL%0,                            Xuhui%Chen%NULL%0,                            Xuhui%Chen%NULL%0,                            Xian%Zhang%NULL%1,                            Bo%Chen%NULL%0,                            Huimin%Yu%NULL%0,                            Yuanjun%Qin%NULL%1,                            Ke%Xiao%NULL%1,                            Hong%Zhang%tjyksys@163.com%1,                            Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,                            Akshata A%Prakash%NULL%1,                            Suresh Babu%Gangasagara%NULL%1,                            Sujatha BL%Rathod%NULL%1,                            K%Ravi%NULL%1,                            Ambica%Rangaiah%NULL%1,                            Sathyanarayan Muthur%Shankar%NULL%1,                            Shantala Gowdara%Basawarajappa%NULL%1,                            Shashi%Bhushan%NULL%1,                            T G%Neeraja%NULL%1,                            Srinivas%Khandenahalli%NULL%1,                            M%Swetha%NULL%1,                            Priyam%Gupta%NULL%1,                            U C%Sampritha%NULL%1,                            Guru N S%Prasad%NULL%1,                            Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,                            Chaoye%Duan%NULL%1,                            Yuyang%Zeng%NULL%1,                            Yongqing%Tong%NULL%1,                            Yuhong%Nie%NULL%1,                            Yang%Yang%NULL%0,                            Zhen%Chen%NULL%1,                            Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,                            Amir%Arabi%amir_arab_91@yahoo.com%1,                            Toktam%Shahraki%NULL%2,                            Toktam%Shahraki%NULL%0,                            Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,                            Julie%Starck%NULL%1,                            Michael%Levy%NULL%1,                            Clémence%Marais%NULL%1,                            Judith%Chareyre%NULL%1,                            Diala%Khraiche%NULL%1,                            Marianne%Leruez-Ville%NULL%1,                            Pierre%Quartier%NULL%1,                            Pierre Louis%Léger%NULL%1,                            Guillaume%Geslain%NULL%1,                            Nada%Semaan%NULL%1,                            Florence%Moulin%NULL%1,                            Matthieu%Bendavid%NULL%1,                            Sandrine%Jean%NULL%1,                            Géraldine%Poncelet%NULL%1,                            Sylvain%Renolleau%NULL%1,                            Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,                            Yi%Zhang%NULL%0,                            Changfa%Hang%NULL%1,                            Jingwen%Ai%NULL%1,                            Shaojie%Li%NULL%1,                            Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,                            Giancarlo%Iarossi%NULL%1,                            Matteo%Federici%NULL%1,                            Sergio%Petroni%NULL%1,                            Paolo%Palma%NULL%1,                            Nicola%Cotugno%NULL%1,                            Maria A.%De Ioris%NULL%1,                            Andrea%Campana%NULL%1,                            Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,                            Danielle E.%Anderson%NULL%1,                            Adrian Eng Zheng%Kang%NULL%1,                            Linfa%Wang%NULL%1,                            Pooja%Rao%NULL%1,                            Barnaby Edward%Young%NULL%0,                            David Chien%Lye%NULL%1,                            Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                             Zheng-yi%Ni%NULL%0,                             Zheng-yi%Ni%NULL%0,                             Yu%Hu%NULL%0,                             Wen-hua%Liang%NULL%0,                             Chun-quan%Ou%NULL%0,                             Jian-xing%He%NULL%0,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chun-liang%Lei%NULL%0,                             David S.C.%Hui%NULL%0,                             Bin%Du%NULL%0,                             Lan-juan%Li%NULL%0,                             Guang%Zeng%NULL%0,                             Kwok-Yung%Yuen%NULL%0,                             Ru-chong%Chen%NULL%0,                             Chun-li%Tang%NULL%0,                             Tao%Wang%NULL%0,                             Ping-yan%Chen%NULL%0,                             Jie%Xiang%NULL%0,                             Shi-yue%Li%NULL%0,                             Jin-lin%Wang%NULL%0,                             Zi-jing%Liang%NULL%0,                             Yi-xiang%Peng%NULL%0,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Ya-hua%Hu%NULL%0,                             Peng%Peng%NULL%0,                             Jian-ming%Wang%NULL%0,                             Ji-yang%Liu%NULL%0,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhi-jian%Zheng%NULL%0,                             Shao-qin%Qiu%NULL%0,                             Jie%Luo%NULL%0,                             Chang-jiang%Ye%NULL%0,                             Shao-yong%Zhu%NULL%0,                             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%1,                             Fang%Duan%NULL%1,                             Chunhua%Luo%NULL%1,                             Qiang%Liu%NULL%0,                             Xingguang%Qu%NULL%1,                             Liang%Liang%NULL%1,                             Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%1,                             Xuhui%Chen%NULL%3,                             Liwen%Chen%NULL%1,                             Chaohua%Deng%NULL%3,                             Xiaojing%Zou%NULL%0,                             Xiaojing%Zou%NULL%0,                             Weiyong%Liu%NULL%3,                             Weiyong%Liu%NULL%0,                             Huimin%Yu%NULL%3,                             Huimin%Yu%NULL%0,                             Bo%Chen%NULL%2,                             Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%1,                             Jianping%Tong%NULL%1,                             Mengyun%Liu%NULL%1,                             Ye%Shen%idrshen@zju.edu.cn%1,                             Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%1,                             Shi-Yun%Jiang%NULL%1,                             Kang-Kang%Xu%NULL%1,                             Xin%Liu%NULL%1,                             Bing%Xu%NULL%1,                             Lin%Wang%lin_wang@hust.edu.cn%0,                             Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Liwen%Chen%NULL%1,                             Chaohua%Deng%NULL%0,                             Chaohua%Deng%NULL%0,                             Xuhui%Chen%NULL%0,                             Xuhui%Chen%NULL%0,                             Xian%Zhang%NULL%1,                             Bo%Chen%NULL%0,                             Huimin%Yu%NULL%0,                             Yuanjun%Qin%NULL%1,                             Ke%Xiao%NULL%1,                             Hong%Zhang%tjyksys@163.com%1,                             Xufang%Sun%sunxufang2016@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%1,                             Akshata A%Prakash%NULL%1,                             Suresh Babu%Gangasagara%NULL%1,                             Sujatha BL%Rathod%NULL%1,                             K%Ravi%NULL%1,                             Ambica%Rangaiah%NULL%1,                             Sathyanarayan Muthur%Shankar%NULL%1,                             Shantala Gowdara%Basawarajappa%NULL%1,                             Shashi%Bhushan%NULL%1,                             T G%Neeraja%NULL%1,                             Srinivas%Khandenahalli%NULL%1,                             M%Swetha%NULL%1,                             Priyam%Gupta%NULL%1,                             U C%Sampritha%NULL%1,                             Guru N S%Prasad%NULL%1,                             Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%1,                             Chaoye%Duan%NULL%1,                             Yuyang%Zeng%NULL%1,                             Yongqing%Tong%NULL%1,                             Yuhong%Nie%NULL%1,                             Yang%Yang%NULL%0,                             Zhen%Chen%NULL%1,                             Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%1,                             Amir%Arabi%amir_arab_91@yahoo.com%1,                             Toktam%Shahraki%NULL%2,                             Toktam%Shahraki%NULL%0,                             Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%2,                             Julie%Starck%NULL%1,                             Michael%Levy%NULL%1,                             Clémence%Marais%NULL%1,                             Judith%Chareyre%NULL%1,                             Diala%Khraiche%NULL%1,                             Marianne%Leruez-Ville%NULL%1,                             Pierre%Quartier%NULL%1,                             Pierre Louis%Léger%NULL%1,                             Guillaume%Geslain%NULL%1,                             Nada%Semaan%NULL%1,                             Florence%Moulin%NULL%1,                             Matthieu%Bendavid%NULL%1,                             Sandrine%Jean%NULL%1,                             Géraldine%Poncelet%NULL%1,                             Sylvain%Renolleau%NULL%1,                             Mehdi%Oualha%mehdi.oualha@aphp.fr%1]</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%1,                             Yi%Zhang%NULL%0,                             Changfa%Hang%NULL%1,                             Jingwen%Ai%NULL%1,                             Shaojie%Li%NULL%1,                             Wenhong%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%1,                             Giancarlo%Iarossi%NULL%1,                             Matteo%Federici%NULL%1,                             Sergio%Petroni%NULL%1,                             Paolo%Palma%NULL%1,                             Nicola%Cotugno%NULL%1,                             Maria A.%De Ioris%NULL%1,                             Andrea%Campana%NULL%1,                             Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%1,                             Danielle E.%Anderson%NULL%1,                             Adrian Eng Zheng%Kang%NULL%1,                             Linfa%Wang%NULL%1,                             Pooja%Rao%NULL%1,                             Barnaby Edward%Young%NULL%0,                             David Chien%Lye%NULL%1,                             Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%0, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Wen-hua%Liang%NULL%0, Chun-quan%Ou%NULL%0, Jian-xing%He%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, David S.C.%Hui%NULL%0, Bin%Du%NULL%0, Lan-juan%Li%NULL%0, Guang%Zeng%NULL%0, Kwok-Yung%Yuen%NULL%0, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Ping-yan%Chen%NULL%0, Jie%Xiang%NULL%0, Shi-yue%Li%NULL%0, Jin-lin%Wang%NULL%0, Zi-jing%Liang%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Ping%Wu%NULL%0, Fang%Duan%NULL%1, Chunhua%Luo%NULL%0, Qiang%Liu%NULL%0, Xingguang%Qu%NULL%1, Liang%Liang%NULL%1, Kaili%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>This is a cross-sectional study of patients who received a COVID-19 diagnosis between December 30, 2019 and February 7, 2020 at Tongji Hospital.
+ A total of 102 patients (48 Male [47%] and 54 Female [53%]) with clinical symptoms, Rt, and chest Computed Tomography (CT) abnormalities were identified with a clinical diagnosis of COVID-19. Patients had a mean [SD] gestational age of 57.63 [14.90] years.
+ Of a total of 102 patients identified, 72 patients (36 men [50%] and 36 women [50%]; mean [SD] age, 58.68 [14.81] years) were confirmed to have COVID-19 by laboratory diagnosis with a SARS-CoV-2 RT-PCR assay.
+ Only two patients (2.78%) with conjunctivitis were identified from 72 patients with a laboratory confirmed COVID-19. Of those two patients, SARS-CoV-2 RNA fragments were found in ocular discharges by SARS-CoV-2 RT-PCR in only one patient.
+ Our findings suspect the incidence of SARS-CoV-2 infection through the ocular surface is extremely low, while the nosocomial infection of SARS-CoV-2 through the eyes after occupational exposure is a potential route.
+ To lower the SARS-CoV-2 nosocomial infection, all health care professionals should wear protective goggles.
+ The inefficient diagnostic method and the sampling time lag may contribute to the lower positive rate of conjunctival swab samples of SARS-CoV-2.</t>
+  </si>
+  <si>
+    <t>[Xian%Zhang%NULL%0, Xuhui%Chen%NULL%3, Liwen%Chen%NULL%0, Chaohua%Deng%NULL%3, Xiaojing%Zou%NULL%0, Xiaojing%Zou%NULL%0, Weiyong%Liu%NULL%3, Weiyong%Liu%NULL%0, Huimin%Yu%NULL%3, Huimin%Yu%NULL%0, Bo%Chen%NULL%0, Xufang%Sun%NULL%2]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Jianhua%Xia%NULL%0, Jianping%Tong%NULL%1, Mengyun%Liu%NULL%1, Ye%Shen%idrshen@zju.edu.cn%1, Dongyu%Guo%guodongyu666@sina.com%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;The 2019 novel coronavirus disease (COVID-19) caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has spread globally, while the routes of transmission of this virus are still controversial.
+ We enrolled 33 patients, without any ocular manifestation, with their ocular surface swabs collected for virus detection.
+ RNA was detected strong positive in samples of both eyes from two patients.
+ Therefore, SARS-CoV-2 may exist in the normal ocular surface of COVID-19 patients, suggesting that this virus might be spread through conjunctival contact.
+</t>
+  </si>
+  <si>
+    <t>[Hua-Tao%Xie%NULL%0, Shi-Yun%Jiang%NULL%1, Kang-Kang%Xu%NULL%1, Xin%Liu%NULL%0, Bing%Xu%NULL%1, Lin%Wang%lin_wang@hust.edu.cn%0, Ming-Chang%Zhang%mingchangzhang@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Kiran%Kumar%NULL%0, Akshata A%Prakash%NULL%1, Suresh Babu%Gangasagara%NULL%1, Sujatha BL%Rathod%NULL%1, K%Ravi%NULL%1, Ambica%Rangaiah%NULL%1, Sathyanarayan Muthur%Shankar%NULL%1, Shantala Gowdara%Basawarajappa%NULL%1, Shashi%Bhushan%NULL%1, T G%Neeraja%NULL%1, Srinivas%Khandenahalli%NULL%1, M%Swetha%NULL%1, Priyam%Gupta%NULL%1, U C%Sampritha%NULL%1, Guru N S%Prasad%NULL%1, Chakravarthy Raghunathan%Jayanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer - Medknow</t>
+  </si>
+  <si>
+    <t>[Yunyun%Zhou%NULL%0, Chaoye%Duan%NULL%1, Yuyang%Zeng%NULL%1, Yongqing%Tong%NULL%1, Yuhong%Nie%NULL%1, Yang%Yang%NULL%0, Zhen%Chen%NULL%1, Changzheng%Chen%chenchangzheng@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>by the American Academy of Ophthalmology</t>
+  </si>
+  <si>
+    <t>[Saeed%Karimi%NULL%0, Amir%Arabi%amir_arab_91@yahoo.com%1, Toktam%Shahraki%NULL%2, Toktam%Shahraki%NULL%0, Sare%Safi%NULL%1]</t>
+  </si>
+  <si>
+    <t>Nature Publishing Group UK</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0, Julie%Starck%NULL%2, Michael%Levy%NULL%0, Clémence%Marais%NULL%2, Judith%Chareyre%NULL%2, Diala%Khraiche%NULL%2, Marianne%Leruez-Ville%NULL%2, Pierre%Quartier%NULL%2, Pierre Louis%Léger%NULL%2, Guillaume%Geslain%NULL%2, Nada%Semaan%NULL%2, Florence%Moulin%NULL%2, Matthieu%Bendavid%NULL%2, Sandrine%Jean%NULL%2, Géraldine%Poncelet%NULL%2, Sylvain%Renolleau%NULL%2, Mehdi%Oualha%mehdi.oualha@aphp.fr%3]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t>[Zhixiong%Fang%NULL%0, Yi%Zhang%NULL%0, Changfa%Hang%NULL%1, Jingwen%Ai%NULL%1, Shaojie%Li%NULL%1, Wenhong%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Paola%Valente%NULL%0, Giancarlo%Iarossi%NULL%1, Matteo%Federici%NULL%1, Sergio%Petroni%NULL%1, Paolo%Palma%NULL%1, Nicola%Cotugno%NULL%1, Maria A.%De Ioris%NULL%1, Andrea%Campana%NULL%1, Luca%Buzzonetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Association for Pediatric Ophthalmology and Strabismus. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Ivan Yu Jun%Seah%NULL%0, Danielle E.%Anderson%NULL%1, Adrian Eng Zheng%Kang%NULL%1, Linfa%Wang%NULL%1, Pooja%Rao%NULL%1, Barnaby Edward%Young%NULL%0, David Chien%Lye%NULL%0, Rupesh%Agrawal%Rupesh_agrawal@ttsh.com.sg%1]</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +2013,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1862,10 +2025,10 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3">
@@ -1882,7 +2045,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1894,10 +2057,10 @@
         <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4">
@@ -1911,10 +2074,10 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>469</v>
       </c>
       <c r="E4" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1926,10 +2089,10 @@
         <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5">
@@ -1946,7 +2109,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1958,10 +2121,10 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6">
@@ -1975,10 +2138,10 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>474</v>
       </c>
       <c r="E6" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1990,10 +2153,10 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>325</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7">
@@ -2010,7 +2173,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>431</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -2022,10 +2185,10 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8">
@@ -2042,7 +2205,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -2054,10 +2217,10 @@
         <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9">
@@ -2074,7 +2237,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -2086,10 +2249,10 @@
         <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10">
@@ -2103,10 +2266,10 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2118,10 +2281,10 @@
         <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>325</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11">
@@ -2135,10 +2298,10 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
@@ -2150,10 +2313,10 @@
         <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>325</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12">
@@ -2170,7 +2333,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -2182,10 +2345,10 @@
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13">
@@ -2202,7 +2365,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -2214,10 +2377,10 @@
         <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14">
@@ -2234,7 +2397,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>
@@ -2246,10 +2409,10 @@
         <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
